--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>69100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,43 @@
         <v>69100</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43519,6 +43519,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43554,6 +43554,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,43 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43626,6 +43626,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,43 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43770,6 +43770,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,76 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43875,6 +43875,78 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43947,6 +43947,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43984,6 +43984,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44021,6 +44021,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44058,6 +44058,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>172800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44093,6 +44093,76 @@
         <v>172800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44163,6 +44163,41 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44198,6 +44198,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>105200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79198,6 +79198,41 @@
         <v>105200</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79233,6 +79233,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79268,6 +79268,43 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79305,6 +79305,41 @@
         </is>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79340,6 +79340,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>70500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79375,6 +79375,43 @@
         <v>70500</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79412,6 +79412,43 @@
         </is>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79449,6 +79449,41 @@
         </is>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>88600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79484,6 +79484,43 @@
         <v>88600</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79521,6 +79521,41 @@
         </is>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>34900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79556,6 +79556,43 @@
         <v>34900</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79593,6 +79593,43 @@
         </is>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79630,6 +79630,43 @@
         </is>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79667,6 +79667,43 @@
         </is>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79704,6 +79704,43 @@
         </is>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93286,6 +93286,41 @@
         </is>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2635" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93321,6 +93321,43 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2636"/>
+  <dimension ref="A1:I2637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93358,6 +93358,43 @@
         </is>
       </c>
     </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2637" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2637" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2637"/>
+  <dimension ref="A1:I2638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93395,6 +93395,41 @@
         </is>
       </c>
     </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2638" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2638" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2638" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2638"/>
+  <dimension ref="A1:I2639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93430,6 +93430,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2639" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2639" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2639" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2639" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2639" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2639"/>
+  <dimension ref="A1:I2640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93465,6 +93465,43 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2640" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2640" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2640"/>
+  <dimension ref="A1:I2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93502,6 +93502,43 @@
         </is>
       </c>
     </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2641" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2641" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2641"/>
+  <dimension ref="A1:I2642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93539,6 +93539,41 @@
         </is>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2642" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2642" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2642" t="n">
+        <v>60200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93574,6 +93574,43 @@
         <v>60200</v>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93611,6 +93611,41 @@
         </is>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2644" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93646,6 +93646,78 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2645" t="n">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2646"/>
+  <dimension ref="A1:I2647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93718,6 +93718,43 @@
         </is>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2647" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2647" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93755,6 +93755,115 @@
         </is>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93864,6 +93864,43 @@
         </is>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93901,6 +93901,43 @@
         </is>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7232.xlsx
+++ b/data/7232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93938,6 +93938,113 @@
         </is>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>RESINTC</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
